--- a/test-data/BookList.xlsx
+++ b/test-data/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vignesh.dhakshnamoor\source\repos\DrDocDemo\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B459AD4-1C11-4995-9799-15129151D3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A304DD-53F1-41D9-8BBA-5ABBE28B0AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Lord of the Rings</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>The meditations of Marcus Aurelius</t>
+  </si>
+  <si>
+    <t>PDF Download</t>
+  </si>
+  <si>
+    <t>As A Man Thinketh</t>
   </si>
 </sst>
 </file>
@@ -394,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,6 +456,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test-data/BookList.xlsx
+++ b/test-data/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vignesh.dhakshnamoor\source\repos\DrDocDemo\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A304DD-53F1-41D9-8BBA-5ABBE28B0AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEDD373-B4A2-454C-A86C-6AC0A418E4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,12 +433,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">

--- a/test-data/BookList.xlsx
+++ b/test-data/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vignesh.dhakshnamoor\source\repos\DrDocDemo\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEDD373-B4A2-454C-A86C-6AC0A418E4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6402671D-DB9E-421A-BFBD-B70B91E85C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Lord of the Rings</t>
   </si>
@@ -33,9 +33,6 @@
     <t>A Happy Life</t>
   </si>
   <si>
-    <t>The wonderful wizard of Oz</t>
-  </si>
-  <si>
     <t>The jungle book</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
   </si>
   <si>
     <t>Books for FullText</t>
-  </si>
-  <si>
-    <t>The Odyssey</t>
   </si>
   <si>
     <t>The meditations of Marcus Aurelius</t>
@@ -400,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +407,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -421,49 +415,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/BookList.xlsx
+++ b/test-data/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vignesh.dhakshnamoor\source\repos\DrDocDemo\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6402671D-DB9E-421A-BFBD-B70B91E85C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EAD69C-7F6E-4B96-9460-72C41779E1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Lord of the Rings</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>As A Man Thinketh</t>
+  </si>
+  <si>
+    <t>The wonderful wizard of Oz</t>
+  </si>
+  <si>
+    <t>The Odyssey</t>
   </si>
 </sst>
 </file>
@@ -110,10 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,38 +422,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/test-data/BookList.xlsx
+++ b/test-data/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vignesh.dhakshnamoor\source\repos\DrDocDemo\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EAD69C-7F6E-4B96-9460-72C41779E1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CB81AB-D18D-4B63-ABF1-0D0C4597FABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,11 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,52 +421,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
